--- a/LaserControlBoard/Project Outputs for PCBLaserControlBoardV1.0/PCBLaserControlBoardV2.0.xlsx
+++ b/LaserControlBoard/Project Outputs for PCBLaserControlBoardV1.0/PCBLaserControlBoardV2.0.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FxSlava\Documents\Laser-LED-STM-Board-Project\LaserControlBoard\Project Outputs for PCBLaserControlBoardV1.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Laser-LED-STM-Board-Project\LaserControlBoard\Project Outputs for PCBLaserControlBoardV1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="10212"/>
   </bookViews>
   <sheets>
     <sheet name="PCBLaserControlBoardV2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="241">
   <si>
     <t>Comment</t>
   </si>
@@ -711,18 +712,62 @@
   </si>
   <si>
     <t>Оптопары</t>
+  </si>
+  <si>
+    <t>заказано</t>
+  </si>
+  <si>
+    <t>BAT54S заказано</t>
+  </si>
+  <si>
+    <t>SS12 заказано</t>
+  </si>
+  <si>
+    <t>SMBJ3V3 заказано</t>
+  </si>
+  <si>
+    <t>PESD5V0 заказано</t>
+  </si>
+  <si>
+    <t>S14K50 заказано</t>
+  </si>
+  <si>
+    <t>нет в наличие</t>
+  </si>
+  <si>
+    <t>выводные компоненты</t>
+  </si>
+  <si>
+    <t>заказано 2EDGR 2EDGK</t>
+  </si>
+  <si>
+    <t>заменено на 2EDGR 2EDGK 4</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>заказано SN74HC04DR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -747,8 +792,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -759,6 +811,18 @@
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -823,42 +887,60 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="40% — акцент2" xfId="1" builtinId="35"/>
+    <cellStyle name="40% — акцент6" xfId="2" builtinId="51"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1136,25 +1218,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I83"/>
+  <dimension ref="A2:J83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="30.375" customWidth="1"/>
-    <col min="4" max="4" width="35.5" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="9.125" customWidth="1"/>
-    <col min="7" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="29.75" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="7" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="29.77734375" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1173,22 +1256,26 @@
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="5"/>
       <c r="I2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1210,10 +1297,15 @@
       <c r="G4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="5"/>
+      <c r="I4" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J4" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1235,10 +1327,15 @@
       <c r="G5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="5"/>
+      <c r="I5" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="J5" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -1260,10 +1357,15 @@
       <c r="G6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="5"/>
+      <c r="I6" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="J6" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -1285,10 +1387,15 @@
       <c r="G7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="5"/>
+      <c r="I7" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="J7" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -1310,24 +1417,31 @@
       <c r="G8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="5"/>
+      <c r="I8" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J8" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -1349,10 +1463,15 @@
       <c r="G10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="5"/>
+      <c r="I10" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="J10" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -1374,21 +1493,28 @@
       <c r="G11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="H11" s="5"/>
+      <c r="I11" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="J11" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -1410,21 +1536,28 @@
       <c r="G13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="H13" s="5"/>
+      <c r="I13" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J13" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -1446,10 +1579,15 @@
       <c r="G15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H15" s="5"/>
+      <c r="I15" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J15" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -1471,10 +1609,13 @@
       <c r="G16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H16" s="5"/>
+      <c r="I16" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -1496,10 +1637,15 @@
       <c r="G17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="5"/>
+      <c r="I17" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="J17" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -1521,21 +1667,28 @@
       <c r="G18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="H18" s="5"/>
+      <c r="I18" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J18" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>14</v>
       </c>
@@ -1557,10 +1710,11 @@
       <c r="G20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="5"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>15</v>
       </c>
@@ -1582,10 +1736,11 @@
       <c r="G21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="11"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H21" s="5"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>16</v>
       </c>
@@ -1607,21 +1762,24 @@
       <c r="G22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+      <c r="H22" s="5"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>17</v>
       </c>
@@ -1643,10 +1801,11 @@
       <c r="G24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="5"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>18</v>
       </c>
@@ -1668,10 +1827,15 @@
       <c r="G25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="5"/>
+      <c r="I25" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>19</v>
       </c>
@@ -1693,10 +1857,15 @@
       <c r="G26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="5"/>
+      <c r="I26" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="J26" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>20</v>
       </c>
@@ -1718,10 +1887,13 @@
       <c r="G27" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H27" s="5"/>
+      <c r="I27" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>21</v>
       </c>
@@ -1743,10 +1915,11 @@
       <c r="G28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="11"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H28" s="5"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>22</v>
       </c>
@@ -1768,10 +1941,11 @@
       <c r="G29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="11"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H29" s="5"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>23</v>
       </c>
@@ -1793,10 +1967,11 @@
       <c r="G30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="11"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H30" s="5"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>24</v>
       </c>
@@ -1818,21 +1993,26 @@
       <c r="G31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="11"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
+      <c r="H31" s="5"/>
+      <c r="I31" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="12"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>25</v>
       </c>
@@ -1854,10 +2034,15 @@
       <c r="G33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="11"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H33" s="5"/>
+      <c r="I33" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J33" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>26</v>
       </c>
@@ -1879,10 +2064,15 @@
       <c r="G34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="11"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H34" s="5"/>
+      <c r="I34" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J34" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>27</v>
       </c>
@@ -1904,10 +2094,15 @@
       <c r="G35" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="11"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H35" s="5"/>
+      <c r="I35" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J35" s="7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>28</v>
       </c>
@@ -1929,20 +2124,27 @@
       <c r="G36" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H36" s="12"/>
-      <c r="I36" s="11"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
+      <c r="H36" s="5"/>
+      <c r="I36" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J36" s="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>29</v>
       </c>
@@ -1964,10 +2166,15 @@
       <c r="G38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H38" s="12"/>
-      <c r="I38" s="11"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H38" s="5"/>
+      <c r="I38" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J38" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>30</v>
       </c>
@@ -1989,21 +2196,28 @@
       <c r="G39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="11"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="9" t="s">
+      <c r="H39" s="5"/>
+      <c r="I39" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J39" s="7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="12"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>31</v>
       </c>
@@ -2025,10 +2239,15 @@
       <c r="G41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H41" s="12"/>
-      <c r="I41" s="11"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H41" s="5"/>
+      <c r="I41" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J41" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>32</v>
       </c>
@@ -2050,10 +2269,15 @@
       <c r="G42" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H42" s="12"/>
-      <c r="I42" s="11"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H42" s="5"/>
+      <c r="I42" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J42" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>33</v>
       </c>
@@ -2075,10 +2299,15 @@
       <c r="G43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H43" s="12"/>
-      <c r="I43" s="11"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H43" s="5"/>
+      <c r="I43" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J43" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>34</v>
       </c>
@@ -2100,10 +2329,15 @@
       <c r="G44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H44" s="12"/>
-      <c r="I44" s="11"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H44" s="5"/>
+      <c r="I44" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J44" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>35</v>
       </c>
@@ -2125,10 +2359,15 @@
       <c r="G45" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H45" s="12"/>
-      <c r="I45" s="11"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H45" s="5"/>
+      <c r="I45" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J45" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>36</v>
       </c>
@@ -2150,10 +2389,15 @@
       <c r="G46" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H46" s="12"/>
-      <c r="I46" s="11"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H46" s="5"/>
+      <c r="I46" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J46" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>37</v>
       </c>
@@ -2175,10 +2419,15 @@
       <c r="G47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H47" s="12"/>
-      <c r="I47" s="11"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H47" s="5"/>
+      <c r="I47" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J47" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>38</v>
       </c>
@@ -2200,10 +2449,15 @@
       <c r="G48" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="11"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H48" s="5"/>
+      <c r="I48" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J48" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>39</v>
       </c>
@@ -2225,10 +2479,15 @@
       <c r="G49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H49" s="12"/>
-      <c r="I49" s="11"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H49" s="5"/>
+      <c r="I49" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J49" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>40</v>
       </c>
@@ -2250,10 +2509,15 @@
       <c r="G50" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H50" s="12"/>
-      <c r="I50" s="11"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H50" s="5"/>
+      <c r="I50" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J50" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>41</v>
       </c>
@@ -2275,10 +2539,15 @@
       <c r="G51" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H51" s="12"/>
-      <c r="I51" s="11"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H51" s="5"/>
+      <c r="I51" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J51" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>42</v>
       </c>
@@ -2300,10 +2569,15 @@
       <c r="G52" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H52" s="12"/>
-      <c r="I52" s="11"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H52" s="5"/>
+      <c r="I52" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J52" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>43</v>
       </c>
@@ -2325,10 +2599,15 @@
       <c r="G53" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H53" s="12"/>
-      <c r="I53" s="11"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H53" s="5"/>
+      <c r="I53" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J53" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>44</v>
       </c>
@@ -2350,10 +2629,15 @@
       <c r="G54" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H54" s="12"/>
-      <c r="I54" s="11"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H54" s="5"/>
+      <c r="I54" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="J54" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>45</v>
       </c>
@@ -2375,20 +2659,27 @@
       <c r="G55" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H55" s="12"/>
-      <c r="I55" s="11"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="5" t="s">
+      <c r="H55" s="5"/>
+      <c r="I55" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J55" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B56" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="6"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>46</v>
       </c>
@@ -2410,10 +2701,11 @@
       <c r="G57" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H57" s="12"/>
-      <c r="I57" s="11"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H57" s="5"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="7"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>47</v>
       </c>
@@ -2435,10 +2727,11 @@
       <c r="G58" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H58" s="12"/>
-      <c r="I58" s="11"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H58" s="5"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="7"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>48</v>
       </c>
@@ -2460,10 +2753,11 @@
       <c r="G59" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H59" s="12"/>
-      <c r="I59" s="11"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H59" s="5"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="7"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>49</v>
       </c>
@@ -2485,10 +2779,11 @@
       <c r="G60" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H60" s="12"/>
-      <c r="I60" s="11"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H60" s="5"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="7"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>50</v>
       </c>
@@ -2510,10 +2805,11 @@
       <c r="G61" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H61" s="12"/>
-      <c r="I61" s="11"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H61" s="5"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="7"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>51</v>
       </c>
@@ -2535,10 +2831,11 @@
       <c r="G62" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H62" s="12"/>
-      <c r="I62" s="11"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H62" s="5"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="7"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>52</v>
       </c>
@@ -2560,10 +2857,11 @@
       <c r="G63" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H63" s="12"/>
-      <c r="I63" s="11"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H63" s="5"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="7"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>53</v>
       </c>
@@ -2585,10 +2883,11 @@
       <c r="G64" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H64" s="12"/>
-      <c r="I64" s="11"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H64" s="5"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="7"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>54</v>
       </c>
@@ -2610,10 +2909,11 @@
       <c r="G65" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H65" s="12"/>
-      <c r="I65" s="11"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H65" s="5"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="7"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>55</v>
       </c>
@@ -2635,10 +2935,11 @@
       <c r="G66" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="H66" s="12"/>
-      <c r="I66" s="11"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H66" s="5"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="7"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>56</v>
       </c>
@@ -2660,10 +2961,11 @@
       <c r="G67" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H67" s="12"/>
-      <c r="I67" s="11"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H67" s="5"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="7"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>57</v>
       </c>
@@ -2685,10 +2987,11 @@
       <c r="G68" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H68" s="12"/>
-      <c r="I68" s="11"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H68" s="5"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="7"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>58</v>
       </c>
@@ -2710,10 +3013,11 @@
       <c r="G69" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H69" s="12"/>
-      <c r="I69" s="11"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H69" s="5"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="7"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>59</v>
       </c>
@@ -2735,20 +3039,23 @@
       <c r="G70" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H70" s="12"/>
-      <c r="I70" s="11"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="5" t="s">
+      <c r="H70" s="5"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="7"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B71" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="6"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>60</v>
       </c>
@@ -2770,10 +3077,11 @@
       <c r="G72" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H72" s="12"/>
-      <c r="I72" s="11"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H72" s="5"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="7"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>61</v>
       </c>
@@ -2795,10 +3103,11 @@
       <c r="G73" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H73" s="12"/>
-      <c r="I73" s="11"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H73" s="5"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="7"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>62</v>
       </c>
@@ -2820,10 +3129,11 @@
       <c r="G74" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H74" s="12"/>
-      <c r="I74" s="11"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H74" s="5"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="7"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>63</v>
       </c>
@@ -2845,10 +3155,11 @@
       <c r="G75" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H75" s="12"/>
-      <c r="I75" s="11"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H75" s="5"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="7"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>64</v>
       </c>
@@ -2870,10 +3181,11 @@
       <c r="G76" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H76" s="12"/>
-      <c r="I76" s="11"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H76" s="5"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="7"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>65</v>
       </c>
@@ -2895,10 +3207,11 @@
       <c r="G77" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H77" s="12"/>
-      <c r="I77" s="11"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H77" s="5"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="7"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>66</v>
       </c>
@@ -2920,10 +3233,11 @@
       <c r="G78" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H78" s="12"/>
-      <c r="I78" s="11"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H78" s="5"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="7"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>67</v>
       </c>
@@ -2945,10 +3259,11 @@
       <c r="G79" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H79" s="12"/>
-      <c r="I79" s="11"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H79" s="5"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="7"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>68</v>
       </c>
@@ -2970,10 +3285,11 @@
       <c r="G80" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H80" s="12"/>
-      <c r="I80" s="11"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H80" s="5"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="7"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>69</v>
       </c>
@@ -2995,10 +3311,11 @@
       <c r="G81" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H81" s="12"/>
-      <c r="I81" s="11"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H81" s="5"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="7"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>70</v>
       </c>
@@ -3020,10 +3337,11 @@
       <c r="G82" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H82" s="12"/>
-      <c r="I82" s="11"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H82" s="5"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="7"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>71</v>
       </c>
@@ -3045,8 +3363,9 @@
       <c r="G83" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H83" s="12"/>
-      <c r="I83" s="11"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
